--- a/data/gesture/labels_move_c_01.xlsx
+++ b/data/gesture/labels_move_c_01.xlsx
@@ -21,12 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>real start</t>
-  </si>
-  <si>
-    <t>real end</t>
-  </si>
-  <si>
     <t>round start</t>
   </si>
   <si>
@@ -34,6 +28,12 @@
   </si>
   <si>
     <t>label</t>
+  </si>
+  <si>
+    <t>real_start</t>
+  </si>
+  <si>
+    <t>real_end</t>
   </si>
 </sst>
 </file>
@@ -406,26 +406,26 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -455,11 +455,11 @@
         <v>7.62</v>
       </c>
       <c r="C3">
-        <f>MROUND(A3,0.05)</f>
+        <f t="shared" ref="C3:C18" si="0">MROUND(A3,0.05)</f>
         <v>5.5</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D4" si="0">MROUND(B3,0.05)</f>
+        <f t="shared" ref="D3:D4" si="1">MROUND(B3,0.05)</f>
         <v>7.6000000000000005</v>
       </c>
       <c r="E3">
@@ -474,11 +474,11 @@
         <v>11.75</v>
       </c>
       <c r="C4">
-        <f>MROUND(A4,0.05)</f>
+        <f t="shared" si="0"/>
         <v>9.5500000000000007</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.75</v>
       </c>
       <c r="E4">
@@ -493,11 +493,11 @@
         <v>15.78</v>
       </c>
       <c r="C5">
-        <f>MROUND(A5,0.05)</f>
+        <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D18" si="1">MROUND(B5,0.05)</f>
+        <f t="shared" ref="D5:D18" si="2">MROUND(B5,0.05)</f>
         <v>15.8</v>
       </c>
       <c r="E5">
@@ -512,11 +512,11 @@
         <v>19.75</v>
       </c>
       <c r="C6">
-        <f>MROUND(A6,0.05)</f>
+        <f t="shared" si="0"/>
         <v>17.55</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.75</v>
       </c>
       <c r="E6">
@@ -531,11 +531,11 @@
         <v>23.81</v>
       </c>
       <c r="C7">
-        <f>MROUND(A7,0.05)</f>
+        <f t="shared" si="0"/>
         <v>21.6</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.8</v>
       </c>
       <c r="E7">
@@ -550,11 +550,11 @@
         <v>27.77</v>
       </c>
       <c r="C8">
-        <f>MROUND(A8,0.05)</f>
+        <f t="shared" si="0"/>
         <v>25.650000000000002</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27.75</v>
       </c>
       <c r="E8">
@@ -569,11 +569,11 @@
         <v>31.8</v>
       </c>
       <c r="C9">
-        <f>MROUND(A9,0.05)</f>
+        <f t="shared" si="0"/>
         <v>29.650000000000002</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31.8</v>
       </c>
       <c r="E9">
@@ -588,11 +588,11 @@
         <v>35.9</v>
       </c>
       <c r="C10">
-        <f>MROUND(A10,0.05)</f>
+        <f t="shared" si="0"/>
         <v>33.65</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35.9</v>
       </c>
       <c r="E10">
@@ -607,11 +607,11 @@
         <v>39.9</v>
       </c>
       <c r="C11">
-        <f>MROUND(A11,0.05)</f>
+        <f t="shared" si="0"/>
         <v>37.65</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39.900000000000006</v>
       </c>
       <c r="E11">
@@ -626,11 +626,11 @@
         <v>43.76</v>
       </c>
       <c r="C12">
-        <f>MROUND(A12,0.05)</f>
+        <f t="shared" si="0"/>
         <v>41.5</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43.75</v>
       </c>
       <c r="E12">
@@ -645,11 +645,11 @@
         <v>47.8</v>
       </c>
       <c r="C13">
-        <f>MROUND(A13,0.05)</f>
+        <f t="shared" si="0"/>
         <v>45.400000000000006</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47.800000000000004</v>
       </c>
       <c r="E13">
@@ -664,11 +664,11 @@
         <v>51.75</v>
       </c>
       <c r="C14">
-        <f>MROUND(A14,0.05)</f>
+        <f t="shared" si="0"/>
         <v>49.300000000000004</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51.75</v>
       </c>
       <c r="E14">
@@ -683,11 +683,11 @@
         <v>56.08</v>
       </c>
       <c r="C15">
-        <f>MROUND(A15,0.05)</f>
+        <f t="shared" si="0"/>
         <v>53.6</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.1</v>
       </c>
       <c r="E15">
@@ -702,11 +702,11 @@
         <v>60.9</v>
       </c>
       <c r="C16">
-        <f>MROUND(A16,0.05)</f>
+        <f t="shared" si="0"/>
         <v>58.6</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60.900000000000006</v>
       </c>
       <c r="E16">
@@ -721,11 +721,11 @@
         <v>65.14</v>
       </c>
       <c r="C17">
-        <f>MROUND(A17,0.05)</f>
+        <f t="shared" si="0"/>
         <v>62.7</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65.150000000000006</v>
       </c>
       <c r="E17">
@@ -740,11 +740,11 @@
         <v>69.94</v>
       </c>
       <c r="C18">
-        <f>MROUND(A18,0.05)</f>
+        <f t="shared" si="0"/>
         <v>67.75</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69.95</v>
       </c>
       <c r="E18">
